--- a/Mifos Automation Excels/Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loanproduct.xlsx
@@ -10,12 +10,12 @@
     <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
     <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>productname</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>kar211</t>
+  </si>
+  <si>
+    <t>38Earlyrepayment1</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -545,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
